--- a/Fichiers/Bilans/bilanContratsS3.xlsx
+++ b/Fichiers/Bilans/bilanContratsS3.xlsx
@@ -23,100 +23,100 @@
     <t xml:space="preserve">Code.EC</t>
   </si>
   <si>
-    <t xml:space="preserve">Garnier_Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubois_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fontaine_Chloé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard_Léo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Arthur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger_Jules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michel_Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leroy_Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fournier_Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubois_Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas_Noah_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garnier_Manon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand_Noah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia_Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morin_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent_Camille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger_Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roux_Gabriel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chevalier_Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit_Adam_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand_Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moulin_Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand_Chloé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durand_Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durand_Jules_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leroy_Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit_Jules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit_Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fontaine_Manon</t>
+    <t xml:space="preserve">Roger_Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia_Léo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand_Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevalier_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubois_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent_Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durand_Camille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morin_Arthur_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert_Raphaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert_Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas_Noah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Zoé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulin_Chloé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fontaine_Léo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Louise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurent_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard_Jade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger_Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leroy_Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin_Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard_Raphaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Léo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel_Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durand_Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulin_Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leroy_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit_Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand_Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petit_Noah</t>
   </si>
   <si>
     <t xml:space="preserve">Sciences expérimentales (UE-STP03-SE)</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">EC-STP03-ACSA</t>
   </si>
   <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">Chimie 3</t>
@@ -698,7 +698,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -707,10 +707,10 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
@@ -725,22 +725,22 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
         <v>38</v>
@@ -749,43 +749,43 @@
         <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
         <v>38</v>
       </c>
       <c r="AF2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="s">
         <v>39</v>
       </c>
       <c r="AH2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="s">
         <v>39</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -802,7 +802,7 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -811,34 +811,34 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
         <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -847,7 +847,7 @@
         <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
         <v>38</v>
@@ -856,51 +856,51 @@
         <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -921,10 +921,10 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
         <v>39</v>
@@ -939,75 +939,75 @@
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s">
         <v>39</v>
       </c>
       <c r="AF4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG4" t="s">
         <v>39</v>
       </c>
       <c r="AH4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -1016,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -1031,7 +1031,7 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
@@ -1043,22 +1043,22 @@
         <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
         <v>39</v>
@@ -1070,34 +1070,34 @@
         <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s">
         <v>38</v>
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="s">
         <v>39</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1123,13 +1123,13 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
@@ -1138,85 +1138,85 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s">
         <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s">
         <v>39</v>
       </c>
       <c r="AG6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1230,16 +1230,16 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -1254,58 +1254,58 @@
         <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s">
         <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s">
         <v>38</v>
@@ -1314,21 +1314,21 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -1337,31 +1337,31 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -1370,55 +1370,55 @@
         <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
         <v>38</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
         <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s">
         <v>38</v>
       </c>
       <c r="Z8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s">
         <v>38</v>
       </c>
       <c r="AC8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s">
         <v>38</v>
       </c>
       <c r="AE8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s">
         <v>39</v>
@@ -1427,7 +1427,7 @@
         <v>38</v>
       </c>
       <c r="AH8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s">
         <v>39</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -1444,16 +1444,16 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -1468,49 +1468,49 @@
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
         <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
         <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
         <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s">
         <v>38</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s">
         <v>38</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s">
         <v>38</v>
@@ -1519,10 +1519,10 @@
         <v>38</v>
       </c>
       <c r="AC9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s">
         <v>38</v>
@@ -1534,7 +1534,7 @@
         <v>38</v>
       </c>
       <c r="AH9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s">
         <v>39</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -1554,19 +1554,19 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
@@ -1575,16 +1575,16 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
         <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
         <v>39</v>
@@ -1593,40 +1593,40 @@
         <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s">
         <v>39</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s">
         <v>38</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
         <v>38</v>
@@ -1635,13 +1635,13 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG10" t="s">
         <v>39</v>
       </c>
       <c r="AH10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s">
         <v>39</v>
@@ -1658,16 +1658,16 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -1694,16 +1694,16 @@
         <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="s">
         <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
         <v>39</v>
@@ -1712,10 +1712,10 @@
         <v>39</v>
       </c>
       <c r="V11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s">
         <v>39</v>
@@ -1727,28 +1727,28 @@
         <v>39</v>
       </c>
       <c r="AA11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s">
         <v>38</v>
       </c>
       <c r="AC11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s">
         <v>38</v>
       </c>
       <c r="AE11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="s">
         <v>38</v>
@@ -1768,13 +1768,13 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
@@ -1786,13 +1786,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
         <v>38</v>
@@ -1804,19 +1804,19 @@
         <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s">
         <v>39</v>
@@ -1825,7 +1825,7 @@
         <v>38</v>
       </c>
       <c r="X12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s">
         <v>38</v>
@@ -1837,13 +1837,13 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s">
         <v>39</v>
       </c>
       <c r="AD12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s">
         <v>38</v>
@@ -1852,7 +1852,7 @@
         <v>39</v>
       </c>
       <c r="AG12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="s">
         <v>39</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -1875,13 +1875,13 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -1893,13 +1893,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
         <v>38</v>
@@ -1911,19 +1911,19 @@
         <v>39</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s">
         <v>39</v>
@@ -1932,7 +1932,7 @@
         <v>38</v>
       </c>
       <c r="X13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s">
         <v>38</v>
@@ -1944,13 +1944,13 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s">
         <v>39</v>
       </c>
       <c r="AD13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s">
         <v>38</v>
@@ -1959,7 +1959,7 @@
         <v>39</v>
       </c>
       <c r="AG13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s">
         <v>39</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -1982,13 +1982,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
@@ -2000,13 +2000,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
         <v>38</v>
@@ -2018,19 +2018,19 @@
         <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s">
         <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s">
         <v>39</v>
@@ -2039,7 +2039,7 @@
         <v>38</v>
       </c>
       <c r="X14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s">
         <v>38</v>
@@ -2051,13 +2051,13 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s">
         <v>39</v>
       </c>
       <c r="AD14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s">
         <v>38</v>
@@ -2066,7 +2066,7 @@
         <v>39</v>
       </c>
       <c r="AG14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s">
         <v>39</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -2089,13 +2089,13 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
         <v>39</v>
@@ -2107,13 +2107,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -2125,19 +2125,19 @@
         <v>39</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s">
         <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s">
         <v>39</v>
@@ -2146,7 +2146,7 @@
         <v>38</v>
       </c>
       <c r="X15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s">
         <v>38</v>
@@ -2158,13 +2158,13 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s">
         <v>39</v>
       </c>
       <c r="AD15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s">
         <v>38</v>
@@ -2173,7 +2173,7 @@
         <v>39</v>
       </c>
       <c r="AG15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s">
         <v>39</v>
@@ -2196,19 +2196,19 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
         <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
         <v>39</v>
@@ -2217,10 +2217,10 @@
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
         <v>38</v>
@@ -2229,43 +2229,43 @@
         <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s">
         <v>39</v>
       </c>
       <c r="T16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s">
         <v>38</v>
       </c>
       <c r="X16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s">
         <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s">
         <v>38</v>
@@ -2280,7 +2280,7 @@
         <v>38</v>
       </c>
       <c r="AG16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s">
         <v>39</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -2303,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2315,7 +2315,7 @@
         <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
         <v>39</v>
@@ -2324,31 +2324,31 @@
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" t="s">
         <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q17" t="s">
         <v>39</v>
       </c>
       <c r="R17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s">
         <v>39</v>
       </c>
       <c r="T17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s">
         <v>38</v>
@@ -2366,16 +2366,16 @@
         <v>38</v>
       </c>
       <c r="Z17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s">
         <v>38</v>
@@ -2384,21 +2384,21 @@
         <v>39</v>
       </c>
       <c r="AF17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s">
         <v>39</v>
       </c>
       <c r="AI17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -2407,52 +2407,52 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
         <v>39</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q18" t="s">
         <v>39</v>
       </c>
       <c r="R18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s">
         <v>39</v>
@@ -2479,33 +2479,33 @@
         <v>39</v>
       </c>
       <c r="AB18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s">
         <v>38</v>
       </c>
       <c r="AE18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF18" t="s">
         <v>38</v>
       </c>
       <c r="AG18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -2514,7 +2514,7 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
@@ -2529,16 +2529,16 @@
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
         <v>38</v>
@@ -2547,16 +2547,16 @@
         <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" t="s">
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
         <v>39</v>
@@ -2565,16 +2565,16 @@
         <v>39</v>
       </c>
       <c r="U19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s">
         <v>39</v>
       </c>
       <c r="W19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s">
         <v>38</v>
@@ -2583,28 +2583,28 @@
         <v>38</v>
       </c>
       <c r="AA19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF19" t="s">
         <v>38</v>
       </c>
       <c r="AG19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI19" t="s">
         <v>38</v>
